--- a/Phan_chia_cong_viec/Phan_chia_cong_viec.xlsx
+++ b/Phan_chia_cong_viec/Phan_chia_cong_viec.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>DEADLINE</t>
   </si>
@@ -42,12 +42,6 @@
     <t>ĐẶNG LÝ MỸ NGỌC - PHẠM QUANG HUY</t>
   </si>
   <si>
-    <t>USER PAGE</t>
-  </si>
-  <si>
-    <t>ADMIN PAGE</t>
-  </si>
-  <si>
     <t>Mỹ Ngọc</t>
   </si>
   <si>
@@ -55,13 +49,37 @@
   </si>
   <si>
     <t>CAPSTONE REACTJS - BC54 - NHÓM 4</t>
+  </si>
+  <si>
+    <t>Detail Page</t>
+  </si>
+  <si>
+    <t>Login Page</t>
+  </si>
+  <si>
+    <t>Register Page</t>
+  </si>
+  <si>
+    <t>Booking Page</t>
+  </si>
+  <si>
+    <t>Home Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USER </t>
+  </si>
+  <si>
+    <t>Admin Page</t>
+  </si>
+  <si>
+    <t>ADMIN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -97,15 +115,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,6 +157,30 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor rgb="FFB6D7A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFB6D7A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor rgb="FFB6D7A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -155,21 +190,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -210,54 +230,79 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,10 +522,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -490,81 +535,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="2">
         <v>45289</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1"/>
+      <c r="A5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="B6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3"/>
+      <c r="B15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
